--- a/01_詳細機能検討/00_Fukuda/戦略カスタマイズ.xlsx
+++ b/01_詳細機能検討/00_Fukuda/戦略カスタマイズ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecon\Desktop\起業検討\forAnotherStart\forAnotherStart\01_詳細機能検討\00_Fukuda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6A3A9-5BF8-4FAD-940E-07160000259B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F46262-B98E-430D-B664-E49DC14A5545}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{9F780AD8-07E3-4F69-8722-16C25217728D}"/>
   </bookViews>
@@ -1252,7 +1252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,9 +1602,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6481,16 +6478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8901</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
+      <xdr:rowOff>223836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>328614</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>222546</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6505,12 +6502,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4933953" y="5534025"/>
-          <a:ext cx="6081711" cy="1590674"/>
+          <a:off x="4255093" y="5498194"/>
+          <a:ext cx="6755764" cy="1569889"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1292"/>
+            <a:gd name="adj1" fmla="val 851"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6536,16 +6533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>461964</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337338</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>222547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>461966</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337340</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>214624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6560,8 +6557,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3352802" y="5981700"/>
-          <a:ext cx="1343025" cy="2"/>
+          <a:off x="2544513" y="6392031"/>
+          <a:ext cx="1336259" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -13033,7 +13030,7 @@
       <c r="M10" s="32">
         <v>1111</v>
       </c>
-      <c r="N10" s="121">
+      <c r="N10" s="120">
         <v>1000000</v>
       </c>
       <c r="O10" s="37"/>
@@ -13099,7 +13096,7 @@
       <c r="M12" s="32">
         <v>3333</v>
       </c>
-      <c r="N12" s="122">
+      <c r="N12" s="121">
         <v>3000000</v>
       </c>
       <c r="O12" s="37"/>
@@ -13130,7 +13127,7 @@
       <c r="M13" s="50">
         <v>4444</v>
       </c>
-      <c r="N13" s="123">
+      <c r="N13" s="122">
         <v>4000000</v>
       </c>
       <c r="O13" s="51"/>
@@ -13200,7 +13197,7 @@
       <c r="M15" s="32">
         <v>6666</v>
       </c>
-      <c r="N15" s="121">
+      <c r="N15" s="120">
         <v>4000000</v>
       </c>
       <c r="O15" s="37"/>
@@ -13270,7 +13267,7 @@
       <c r="M17" s="32">
         <v>8888</v>
       </c>
-      <c r="N17" s="122">
+      <c r="N17" s="121">
         <v>6000000</v>
       </c>
       <c r="O17" s="37"/>
@@ -13338,7 +13335,7 @@
       <c r="M19" s="32">
         <v>1234</v>
       </c>
-      <c r="N19" s="121">
+      <c r="N19" s="120">
         <v>4000000</v>
       </c>
       <c r="O19" s="37"/>
@@ -13556,8 +13553,8 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.7">
@@ -13568,8 +13565,8 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -13578,8 +13575,8 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -13589,11 +13586,11 @@
       <c r="E33" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="119"/>
-      <c r="G33" s="120" t="s">
+      <c r="F33" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -13602,8 +13599,8 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.7">
@@ -13653,9 +13650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5064D8-5C94-4EB2-87D1-8698CA8A86FA}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -13698,7 +13693,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="124" t="s">
+      <c r="S4" s="123" t="s">
         <v>11</v>
       </c>
       <c r="T4" s="81"/>
@@ -13733,7 +13728,7 @@
       <c r="N5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="131"/>
+      <c r="O5" s="130"/>
       <c r="P5" s="96"/>
       <c r="Q5" s="97" t="s">
         <v>12</v>
@@ -13887,7 +13882,7 @@
       <c r="O10" s="32">
         <v>1111</v>
       </c>
-      <c r="P10" s="121">
+      <c r="P10" s="120">
         <v>1000000</v>
       </c>
       <c r="Q10" s="37"/>
@@ -13953,7 +13948,7 @@
       <c r="O12" s="32">
         <v>3333</v>
       </c>
-      <c r="P12" s="122">
+      <c r="P12" s="121">
         <v>3000000</v>
       </c>
       <c r="Q12" s="37"/>
@@ -13984,7 +13979,7 @@
       <c r="O13" s="50">
         <v>4444</v>
       </c>
-      <c r="P13" s="123">
+      <c r="P13" s="122">
         <v>4000000</v>
       </c>
       <c r="Q13" s="51"/>
@@ -14054,7 +14049,7 @@
       <c r="O15" s="32">
         <v>6666</v>
       </c>
-      <c r="P15" s="121">
+      <c r="P15" s="120">
         <v>4000000</v>
       </c>
       <c r="Q15" s="37"/>
@@ -14124,7 +14119,7 @@
       <c r="O17" s="32">
         <v>8888</v>
       </c>
-      <c r="P17" s="122">
+      <c r="P17" s="121">
         <v>6000000</v>
       </c>
       <c r="Q17" s="37"/>
@@ -14192,7 +14187,7 @@
       <c r="O19" s="32">
         <v>1234</v>
       </c>
-      <c r="P19" s="121">
+      <c r="P19" s="120">
         <v>4000000</v>
       </c>
       <c r="Q19" s="37"/>
@@ -14313,7 +14308,7 @@
         <v>40</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="126" t="s">
+      <c r="M23" s="125" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="11"/>
@@ -14342,7 +14337,7 @@
       <c r="N24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="131" t="s">
+      <c r="O24" s="130" t="s">
         <v>14</v>
       </c>
       <c r="P24" s="96"/>
@@ -14367,11 +14362,11 @@
       <c r="J25" s="2"/>
       <c r="K25" s="77"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="128"/>
+      <c r="M25" s="127"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
-      <c r="Q25" s="129"/>
+      <c r="Q25" s="128"/>
       <c r="R25" s="2"/>
       <c r="S25" s="15"/>
       <c r="T25" s="14"/>
@@ -14392,17 +14387,17 @@
       <c r="J26" s="2"/>
       <c r="K26" s="77"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="128"/>
+      <c r="M26" s="127"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
-      <c r="Q26" s="129"/>
+      <c r="Q26" s="128"/>
       <c r="R26" s="2"/>
       <c r="S26" s="15"/>
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="127"/>
+      <c r="W26" s="126"/>
       <c r="X26" s="83"/>
     </row>
     <row r="27" spans="4:24" x14ac:dyDescent="0.7">
@@ -14435,7 +14430,7 @@
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="127"/>
+      <c r="W27" s="126"/>
       <c r="X27" s="83"/>
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.7">
@@ -14457,7 +14452,7 @@
       <c r="O28" s="32">
         <v>1111</v>
       </c>
-      <c r="P28" s="121">
+      <c r="P28" s="120">
         <v>1000000</v>
       </c>
       <c r="Q28" s="37"/>
@@ -14466,7 +14461,7 @@
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="127"/>
+      <c r="W28" s="126"/>
       <c r="X28" s="83"/>
     </row>
     <row r="29" spans="4:24" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -14488,12 +14483,12 @@
       <c r="O29" s="40">
         <v>3333</v>
       </c>
-      <c r="P29" s="130">
+      <c r="P29" s="129">
         <v>3000000</v>
       </c>
       <c r="Q29" s="41"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="125" t="s">
+      <c r="S29" s="124" t="s">
         <v>12</v>
       </c>
       <c r="T29" s="84"/>
